--- a/inventaire.xlsx
+++ b/inventaire.xlsx
@@ -1,25 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D5CAEE-F98F-46EB-8FD6-0D8FD1EF7C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>Valeur (en crédit)</t>
+  </si>
+  <si>
+    <t>Poid (kg)</t>
+  </si>
+  <si>
+    <t>poid unitaire (kg)</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prix unitaire (en crédit)</t>
+  </si>
+  <si>
+    <t>Armes</t>
+  </si>
+  <si>
+    <t>Range (ft)</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Equipement</t>
+  </si>
+  <si>
+    <t>Armor class</t>
+  </si>
+  <si>
+    <t>effet(optionel)</t>
+  </si>
+  <si>
+    <t>Balles de 9mm</t>
+  </si>
+  <si>
+    <t>pistolet 9mm</t>
+  </si>
+  <si>
+    <t>2d4</t>
+  </si>
+  <si>
+    <t>Une arme de point vous permetant de tirer 1 fois par tour pendant 6 tours, au 6eme tour une action est requise pour recharger. Lors d'un critique vous rajoute 1d4 de dégat.</t>
+  </si>
+  <si>
+    <t>Habit de travailleur</t>
+  </si>
+  <si>
+    <t>vous rend completement invisible parmis la plebe mais dé que vous allez dans un quartier riche vous etes instantanément fliqué</t>
+  </si>
+  <si>
+    <t>habit de travailleur dévoué à son entreprise et prenant à cœur les valeurs de l'entreprise et de l'entraide, remerciez vos patrons de vous l'avoir offert</t>
+  </si>
+  <si>
+    <t>kanife</t>
+  </si>
+  <si>
+    <t>1d6</t>
+  </si>
+  <si>
+    <t>un kanife quoi serieux. Si critique double les dégats,</t>
+  </si>
+  <si>
+    <t>poings</t>
+  </si>
+  <si>
+    <t>1d4</t>
+  </si>
+  <si>
+    <t>hei ya kunt watarya saying about ma mom. En cas de critique rajoute 1d4</t>
+  </si>
+  <si>
+    <t>fer à souder</t>
+  </si>
+  <si>
+    <t>Crédit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,13 +161,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +221,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet"/>
+    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="12">
+      <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="11">
+      <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)"/>
+    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité"/>
+    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="G1:K4" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="G1:K4" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{92F190B5-4D0F-4430-A9EB-C029BA2ABCB6}" name="Hit" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{673EB653-78A3-44E1-9E1B-7F3369F4EED8}" name="Damage" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{699C8757-0E90-4991-A110-945643A02473}" name="description" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="L1:O2" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="L1:O2" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="Armor class" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +558,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+      <c r="I2" s="1">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>G2</f>
+        <v>pistolet 9mm</v>
+      </c>
+      <c r="B3" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <f>[1]Feuil1!C2</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>G3</f>
+        <v>kanife</v>
+      </c>
+      <c r="B4" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <f>[1]Feuil1!C2</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>L2</f>
+        <v>Habit de travailleur</v>
+      </c>
+      <c r="B5" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/inventaire.xlsx
+++ b/inventaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D5CAEE-F98F-46EB-8FD6-0D8FD1EF7C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0BCB67-26E5-4255-BFC9-E67B3AA1BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Objet</t>
   </si>
@@ -126,6 +148,15 @@
   </si>
   <si>
     <t>Crédit</t>
+  </si>
+  <si>
+    <t>ça soude un max et sinon ça chauffe bien et ça fait mal sur la peau</t>
+  </si>
+  <si>
+    <t>miam l'argent</t>
+  </si>
+  <si>
+    <t>La seule preuve que un jour les états unis ont eu des écoles</t>
   </si>
 </sst>
 </file>
@@ -170,7 +201,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -206,9 +252,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,27 +302,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet"/>
-    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:G7" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:G7" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="17">
       <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="16">
       <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)"/>
-    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité"/>
-    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)"/>
+    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{6D48971E-7420-443F-9937-CC597DC2A745}" name="description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="G1:K4" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="G1:K4" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="H1:L4" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="H1:L4" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)" dataDxfId="9"/>
@@ -284,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="L1:O2" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="L1:O2" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="M1:P2" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="M1:P2" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="Armor class" dataDxfId="3"/>
@@ -559,32 +611,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,34 +657,37 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -653,37 +709,44 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>150</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <f>[1]Feuil1!C3</f>
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>G2</f>
+        <f>H2</f>
         <v>pistolet 9mm</v>
       </c>
       <c r="B3" s="1">
@@ -703,30 +766,38 @@
       <c r="F3" s="1">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1" t="str">
+        <f>L2</f>
+        <v>Une arme de point vous permetant de tirer 1 fois par tour pendant 6 tours, au 6eme tour une action est requise pour recharger. Lors d'un critique vous rajoute 1d4 de dégat.</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f>[1]Feuil1!C2</f>
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>G3</f>
+        <f>H3</f>
         <v>kanife</v>
       </c>
       <c r="B4" s="1">
@@ -746,30 +817,38 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1" t="str">
+        <f>L3</f>
+        <v>un kanife quoi serieux. Si critique double les dégats,</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f>[1]Feuil1!C2</f>
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>L2</f>
+        <f>M2</f>
         <v>Habit de travailleur</v>
       </c>
       <c r="B5" s="1">
@@ -789,8 +868,25 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="str" cm="1">
+        <f t="array" ref="G5">Tableau5[description]</f>
+        <v>habit de travailleur dévoué à son entreprise et prenant à cœur les valeurs de l'entreprise et de l'entraide, remerciez vos patrons de vous l'avoir offert</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -811,8 +907,24 @@
       <c r="F6" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -833,38 +945,264 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventaire.xlsx
+++ b/inventaire.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0BCB67-26E5-4255-BFC9-E67B3AA1BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02687724-3BEB-4115-BF3D-F21000E4F647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="sac à dos" sheetId="1" r:id="rId1"/>
+    <sheet name="coffre" sheetId="5" r:id="rId2"/>
+    <sheet name="armes" sheetId="2" r:id="rId3"/>
+    <sheet name="equipement" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,30 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Objet</t>
   </si>
@@ -132,9 +113,6 @@
     <t>1d6</t>
   </si>
   <si>
-    <t>un kanife quoi serieux. Si critique double les dégats,</t>
-  </si>
-  <si>
     <t>poings</t>
   </si>
   <si>
@@ -157,6 +135,15 @@
   </si>
   <si>
     <t>La seule preuve que un jour les états unis ont eu des écoles</t>
+  </si>
+  <si>
+    <t>un kanife quoi serieux. Si critique double les dégats.</t>
+  </si>
+  <si>
+    <t>combinaison spatial</t>
+  </si>
+  <si>
+    <t>une combinaison spatial basique te permetant de survivre à des condition  sans oxygen mais pas de vide spatial c'est bien pour se déplacer sur encelade mais pas dans l'espace ou du moins pas longtemps avec un peu de chance tu survie mais attention à pas trop faire le con</t>
   </si>
 </sst>
 </file>
@@ -201,7 +188,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -302,47 +324,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:G7" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:G7" totalsRowShown="0" dataDxfId="22">
   <autoFilter ref="A1:G7" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="28">
       <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="27">
       <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6D48971E-7420-443F-9937-CC597DC2A745}" name="description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{6D48971E-7420-443F-9937-CC597DC2A745}" name="description" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="H1:L4" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="H1:L4" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A9CD42C8-AE51-468A-881E-F1905BFCD2F0}" name="Tableau35" displayName="Tableau35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G2" xr:uid="{A9CD42C8-AE51-468A-881E-F1905BFCD2F0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{368FE318-8930-44E8-BB59-1D2E2C05EA8E}" name="Objet" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CDC3DF32-16C3-406D-99F8-E3A228CCB52A}" name="Valeur (en crédit)" dataDxfId="7">
+      <calculatedColumnFormula>Tableau35[[#This Row],[Quantité]]*Tableau35[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{85CFC2BD-6028-4138-8938-AE7B57CC7314}" name="Poid (kg)" dataDxfId="6">
+      <calculatedColumnFormula>Tableau35[[#This Row],[poid unitaire (kg)]]*Tableau35[[#This Row],[Quantité]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1BA69D13-0CE6-49CD-B301-F1655996E063}" name="poid unitaire (kg)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4352B22C-1028-4863-B1E0-F10A12B1AB65}" name="Quantité" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{51DB9165-5D02-4F41-A1B9-01536AA83453}" name="Prix unitaire (en crédit)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7B837575-17C3-415B-BDDE-EDFAC46C5028}" name="description" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:E5" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{92F190B5-4D0F-4430-A9EB-C029BA2ABCB6}" name="Hit" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{673EB653-78A3-44E1-9E1B-7F3369F4EED8}" name="Damage" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{699C8757-0E90-4991-A110-945643A02473}" name="description" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{92F190B5-4D0F-4430-A9EB-C029BA2ABCB6}" name="Hit" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{673EB653-78A3-44E1-9E1B-7F3369F4EED8}" name="Damage" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{699C8757-0E90-4991-A110-945643A02473}" name="description" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="M1:P2" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="M1:P2" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:D4" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="Armor class" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="Armor class" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -614,7 +656,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,35 +701,8 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -709,35 +724,7 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1">
-        <v>150</v>
-      </c>
-      <c r="J2" s="1">
-        <f>[1]Feuil1!C3</f>
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -746,7 +733,7 @@
     </row>
     <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f>H2</f>
+        <f>armes!A2</f>
         <v>pistolet 9mm</v>
       </c>
       <c r="B3" s="1">
@@ -767,24 +754,8 @@
         <v>35</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>L2</f>
+        <f>armes!E2</f>
         <v>Une arme de point vous permetant de tirer 1 fois par tour pendant 6 tours, au 6eme tour une action est requise pour recharger. Lors d'un critique vous rajoute 1d4 de dégat.</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <f>[1]Feuil1!C2</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -795,9 +766,9 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f>H3</f>
+        <f>armes!A3</f>
         <v>kanife</v>
       </c>
       <c r="B4" s="1">
@@ -818,24 +789,8 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>L3</f>
-        <v>un kanife quoi serieux. Si critique double les dégats,</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1">
-        <f>[1]Feuil1!C2</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
+        <f>armes!E3</f>
+        <v>un kanife quoi serieux. Si critique double les dégats.</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -848,7 +803,7 @@
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f>M2</f>
+        <f>equipement!A2</f>
         <v>Habit de travailleur</v>
       </c>
       <c r="B5" s="1">
@@ -868,8 +823,8 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="str" cm="1">
-        <f t="array" ref="G5">Tableau5[description]</f>
+      <c r="G5" s="1" t="str">
+        <f>equipement!D2</f>
         <v>habit de travailleur dévoué à son entreprise et prenant à cœur les valeurs de l'entreprise et de l'entraide, remerciez vos patrons de vous l'avoir offert</v>
       </c>
       <c r="H5" s="1"/>
@@ -888,7 +843,7 @@
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -908,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -926,7 +881,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -946,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1206,10 +1161,343 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB45B03-2F3E-44A4-9451-74B55ACEC076}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <f>Tableau35[[#This Row],[Quantité]]*Tableau35[[#This Row],[Prix unitaire (en crédit)]]</f>
+        <v>300</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Tableau35[[#This Row],[poid unitaire (kg)]]*Tableau35[[#This Row],[Quantité]]</f>
+        <v>45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>300</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C3ED6B-344A-48D4-BCA1-D002C509BE53}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1">
+        <f>[1]Feuil1!C3</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>[1]Feuil1!C2</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <f>[1]Feuil1!C2</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DD3356-349C-40B9-83C6-50B2AE27E7F2}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/inventaire.xlsx
+++ b/inventaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02687724-3BEB-4115-BF3D-F21000E4F647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAF1913-C144-4CF0-86BE-724C7F05DEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sac à dos" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Equipement</t>
   </si>
   <si>
-    <t>Armor class</t>
-  </si>
-  <si>
     <t>effet(optionel)</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>une combinaison spatial basique te permetant de survivre à des condition  sans oxygen mais pas de vide spatial c'est bien pour se déplacer sur encelade mais pas dans l'espace ou du moins pas longtemps avec un peu de chance tu survie mais attention à pas trop faire le con</t>
+  </si>
+  <si>
+    <t>bonus Armor class</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <autoFilter ref="A1:D4" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="Armor class" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="bonus Armor class" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="11"/>
   </tableColumns>
@@ -655,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +704,7 @@
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -724,7 +724,7 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -843,7 +843,7 @@
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -863,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <f>Tableau35[[#This Row],[Quantité]]*Tableau35[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -1231,7 +1231,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>150</v>
@@ -1333,15 +1333,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -1351,15 +1351,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -1369,10 +1369,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DD3356-349C-40B9-83C6-50B2AE27E7F2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,10 +1411,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/inventaire.xlsx
+++ b/inventaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\Fiche_de_personage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian\Documents\JDR\Enceladus\fiche-de-personnage-interactive-codex-develop-python-inventory-management-app\fiche-de-personnage-interactive-codex-develop-python-inventory-management-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAF1913-C144-4CF0-86BE-724C7F05DEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF19F3-DAC8-434A-B5BF-F1850C217472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sac à dos" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Objet</t>
   </si>
@@ -122,13 +122,7 @@
     <t>fer à souder</t>
   </si>
   <si>
-    <t>Crédit</t>
-  </si>
-  <si>
     <t>ça soude un max et sinon ça chauffe bien et ça fait mal sur la peau</t>
-  </si>
-  <si>
-    <t>miam l'argent</t>
   </si>
   <si>
     <t>La seule preuve que un jour les états unis ont eu des écoles</t>
@@ -208,6 +202,21 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -237,47 +246,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -324,67 +318,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:G7" totalsRowShown="0" dataDxfId="22">
-  <autoFilter ref="A1:G7" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6918A72-0980-4AA6-B8BC-B70F3103F2FF}" name="Tableau3" displayName="Tableau3" ref="A1:G6" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A1:G6" xr:uid="{FBFDB5C6-B56E-4825-A40C-2ED6D68AE07F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{2E61CDF0-8050-47AE-A3C7-9AB27B8011E3}" name="Objet" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D237C7AC-DCE8-47CF-87CE-05AAD60EB287}" name="Valeur (en crédit)" dataDxfId="21">
       <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{30F76DC0-9034-4953-A9DA-5551EA4AE025}" name="Poid (kg)" dataDxfId="20">
       <calculatedColumnFormula>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{6D48971E-7420-443F-9937-CC597DC2A745}" name="description" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{54E3D62F-D77F-4AB3-926C-BA0F6C626885}" name="poid unitaire (kg)" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{F721F364-4E99-4FE6-A141-C27A2C69D980}" name="Quantité" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F576C1A2-956C-405C-8CBD-BB637B7D1210}" name="Prix unitaire (en crédit)" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{6D48971E-7420-443F-9937-CC597DC2A745}" name="description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A9CD42C8-AE51-468A-881E-F1905BFCD2F0}" name="Tableau35" displayName="Tableau35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A9CD42C8-AE51-468A-881E-F1905BFCD2F0}" name="Tableau35" displayName="Tableau35" ref="A1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G2" xr:uid="{A9CD42C8-AE51-468A-881E-F1905BFCD2F0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{368FE318-8930-44E8-BB59-1D2E2C05EA8E}" name="Objet" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CDC3DF32-16C3-406D-99F8-E3A228CCB52A}" name="Valeur (en crédit)" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{368FE318-8930-44E8-BB59-1D2E2C05EA8E}" name="Objet" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CDC3DF32-16C3-406D-99F8-E3A228CCB52A}" name="Valeur (en crédit)" dataDxfId="12">
       <calculatedColumnFormula>Tableau35[[#This Row],[Quantité]]*Tableau35[[#This Row],[Prix unitaire (en crédit)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{85CFC2BD-6028-4138-8938-AE7B57CC7314}" name="Poid (kg)" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{85CFC2BD-6028-4138-8938-AE7B57CC7314}" name="Poid (kg)" dataDxfId="11">
       <calculatedColumnFormula>Tableau35[[#This Row],[poid unitaire (kg)]]*Tableau35[[#This Row],[Quantité]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BA69D13-0CE6-49CD-B301-F1655996E063}" name="poid unitaire (kg)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4352B22C-1028-4863-B1E0-F10A12B1AB65}" name="Quantité" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{51DB9165-5D02-4F41-A1B9-01536AA83453}" name="Prix unitaire (en crédit)" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{7B837575-17C3-415B-BDDE-EDFAC46C5028}" name="description" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1BA69D13-0CE6-49CD-B301-F1655996E063}" name="poid unitaire (kg)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4352B22C-1028-4863-B1E0-F10A12B1AB65}" name="Quantité" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{51DB9165-5D02-4F41-A1B9-01536AA83453}" name="Prix unitaire (en crédit)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{7B837575-17C3-415B-BDDE-EDFAC46C5028}" name="description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{362F6330-AE96-4029-ACA4-D19EDF630400}" name="Tableau4" displayName="Tableau4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{D7C1B802-A46B-4745-B044-CD82F4352BA5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{92F190B5-4D0F-4430-A9EB-C029BA2ABCB6}" name="Hit" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{673EB653-78A3-44E1-9E1B-7F3369F4EED8}" name="Damage" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{699C8757-0E90-4991-A110-945643A02473}" name="description" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{DCF86FE9-9C23-4D02-9CDA-DF220201CC5D}" name="Armes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{ACFE718D-7442-4CA2-9716-9A35C2D84C41}" name="Range (ft)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{92F190B5-4D0F-4430-A9EB-C029BA2ABCB6}" name="Hit" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{673EB653-78A3-44E1-9E1B-7F3369F4EED8}" name="Damage" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{699C8757-0E90-4991-A110-945643A02473}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9C8E692-37BF-4B80-8A35-29B008A852EF}" name="Tableau5" displayName="Tableau5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D4" xr:uid="{C2455685-722B-4008-B161-44B353559A96}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="bonus Armor class" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{A4C1B411-9916-44FD-AACB-FF5503E38514}" name="Equipement" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{BE47D5EB-BC84-48DE-A740-6EEF4C78E6C3}" name="bonus Armor class" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{2A8E3494-7DC0-44E0-9A5A-118947B824E1}" name="effet(optionel)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{EA2D1287-A12E-4A3F-A376-F5A78BB3DE5E}" name="description" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +718,7 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -863,7 +857,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -880,29 +874,13 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[Prix unitaire (en crédit)]]</f>
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
-        <f>Tableau3[[#This Row],[Quantité]]*Tableau3[[#This Row],[poid unitaire (kg)]]</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1138,13 +1116,6 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1211,7 +1182,7 @@
     </row>
     <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <f>Tableau35[[#This Row],[Quantité]]*Tableau35[[#This Row],[Prix unitaire (en crédit)]]</f>
@@ -1231,7 +1202,7 @@
         <v>300</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1394,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DD3356-349C-40B9-83C6-50B2AE27E7F2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1411,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
